--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Ani\SoftUni\Level 2\AngularJS\Ani_AngularJS_Ads\AngularJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -198,13 +198,22 @@
   </si>
   <si>
     <t>∞</t>
+  </si>
+  <si>
+    <t>https://github.com/AniSoft/AngularJS</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Anita Nikolova</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +243,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -329,10 +346,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +378,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,20 +402,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E51"/>
+  <dimension ref="B2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +699,7 @@
     <col min="5" max="5" width="48.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
@@ -691,75 +713,85 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="C5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>50</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>50</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -770,18 +802,26 @@
         <v>3</v>
       </c>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
@@ -790,8 +830,11 @@
         <v>5</v>
       </c>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -800,8 +843,11 @@
         <v>5</v>
       </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -810,8 +856,11 @@
         <v>5</v>
       </c>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -820,8 +869,11 @@
         <v>5</v>
       </c>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -830,8 +882,11 @@
         <v>3</v>
       </c>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -840,8 +895,11 @@
         <v>5</v>
       </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -850,8 +908,11 @@
         <v>3</v>
       </c>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -860,8 +921,11 @@
         <v>5</v>
       </c>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
@@ -870,8 +934,11 @@
         <v>5</v>
       </c>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -880,8 +947,11 @@
         <v>5</v>
       </c>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
@@ -890,8 +960,11 @@
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -900,8 +973,11 @@
         <v>5</v>
       </c>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -910,8 +986,11 @@
         <v>5</v>
       </c>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
@@ -920,8 +999,11 @@
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I26" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
@@ -930,8 +1012,11 @@
         <v>5</v>
       </c>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -940,8 +1025,11 @@
         <v>5</v>
       </c>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -950,8 +1038,11 @@
         <v>5</v>
       </c>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
@@ -960,8 +1051,11 @@
         <v>5</v>
       </c>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
@@ -970,8 +1064,11 @@
         <v>5</v>
       </c>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I31" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -980,16 +1077,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
+      <c r="I32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
@@ -998,8 +1098,11 @@
         <v>28</v>
       </c>
       <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I34" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1008,8 +1111,11 @@
         <v>28</v>
       </c>
       <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
@@ -1018,8 +1124,11 @@
         <v>28</v>
       </c>
       <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I36" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
@@ -1028,8 +1137,11 @@
         <v>28</v>
       </c>
       <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I37" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
@@ -1038,8 +1150,11 @@
         <v>28</v>
       </c>
       <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I38" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
@@ -1048,8 +1163,11 @@
         <v>28</v>
       </c>
       <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I39" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
@@ -1058,8 +1176,11 @@
         <v>28</v>
       </c>
       <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I40" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
@@ -1068,8 +1189,11 @@
         <v>28</v>
       </c>
       <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I41" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1078,8 +1202,11 @@
         <v>28</v>
       </c>
       <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I42" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
@@ -1088,8 +1215,11 @@
         <v>28</v>
       </c>
       <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I43" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
@@ -1098,8 +1228,11 @@
         <v>28</v>
       </c>
       <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I44" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
@@ -1108,8 +1241,11 @@
         <v>28</v>
       </c>
       <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I45" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
@@ -1118,8 +1254,11 @@
         <v>28</v>
       </c>
       <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I46" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
@@ -1128,8 +1267,11 @@
         <v>28</v>
       </c>
       <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I47" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
@@ -1138,8 +1280,11 @@
         <v>28</v>
       </c>
       <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I48" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -1148,8 +1293,11 @@
         <v>28</v>
       </c>
       <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I49" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
@@ -1158,14 +1306,17 @@
         <v>28</v>
       </c>
       <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I50" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
@@ -1182,7 +1333,10 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -170,9 +170,6 @@
     <t>GitHub (up to 100)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Basic Options (up to 130)</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>∞</t>
   </si>
   <si>
     <t>https://github.com/AniSoft/AngularJS</t>
@@ -399,10 +393,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +683,7 @@
   <dimension ref="B2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +695,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -710,12 +704,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -723,20 +717,20 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -751,13 +745,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -766,8 +760,8 @@
       <c r="C8" s="6">
         <v>50</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
+      <c r="D8" s="12">
+        <v>7</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -778,14 +772,14 @@
       <c r="C9" s="6">
         <v>50</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>57</v>
+      <c r="D9" s="12">
+        <v>274</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -795,8 +789,8 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
+      <c r="C11" s="5">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -825,7 +819,9 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1079,7 @@
     </row>
     <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1316,7 +1312,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="B2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,9 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1314,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1316,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,9 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1318,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="B2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -773,7 +773,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="12">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="E9" s="6"/>
     </row>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -892,7 +894,9 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -905,7 +909,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -918,7 +924,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -931,7 +939,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1045,9 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1060,9 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1075,9 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1334,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="B2:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -680,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I51"/>
+  <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
     <col min="5" max="5" width="48.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
@@ -707,7 +707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -796,11 +796,8 @@
         <v>3</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -811,11 +808,8 @@
         <v>5</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
@@ -826,11 +820,8 @@
         <v>5</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -841,11 +832,8 @@
         <v>5</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -856,11 +844,8 @@
         <v>5</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -871,11 +856,8 @@
         <v>5</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -886,11 +868,8 @@
         <v>3</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -901,11 +880,8 @@
         <v>5</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="I18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -916,11 +892,8 @@
         <v>3</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="I19" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -931,11 +904,8 @@
         <v>5</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="I20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
@@ -946,37 +916,32 @@
         <v>5</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="I23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -985,37 +950,32 @@
         <v>5</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="I25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="I26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
@@ -1024,24 +984,20 @@
         <v>5</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="I27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="I28" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1052,11 +1008,8 @@
         <v>5</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="I29" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1067,11 +1020,8 @@
         <v>5</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="I30" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1082,11 +1032,8 @@
         <v>5</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1095,11 +1042,8 @@
         <v>5</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="I32" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1107,7 +1051,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
@@ -1116,11 +1060,8 @@
         <v>28</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="I34" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1129,11 +1070,8 @@
         <v>28</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="I35" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
@@ -1142,11 +1080,8 @@
         <v>28</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="I36" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
@@ -1155,11 +1090,8 @@
         <v>28</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="I37" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
@@ -1168,11 +1100,8 @@
         <v>28</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="I38" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
@@ -1181,11 +1110,8 @@
         <v>28</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
@@ -1194,11 +1120,8 @@
         <v>28</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="I40" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
@@ -1207,11 +1130,8 @@
         <v>28</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="I41" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1220,11 +1140,8 @@
         <v>28</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="I42" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
@@ -1233,11 +1150,8 @@
         <v>28</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="I43" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
@@ -1246,11 +1160,8 @@
         <v>28</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="I44" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
@@ -1259,11 +1170,8 @@
         <v>28</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="I45" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
@@ -1272,11 +1180,8 @@
         <v>28</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="I46" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
@@ -1285,11 +1190,8 @@
         <v>28</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="I47" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
@@ -1298,11 +1200,8 @@
         <v>28</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="I48" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
@@ -1311,11 +1210,8 @@
         <v>28</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="I49" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
@@ -1324,17 +1220,14 @@
         <v>28</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="I50" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Anita Nikolova</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -682,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -983,7 +986,9 @@
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -1037,7 +1042,9 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1234,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol-Anita.xlsx
@@ -167,9 +167,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>GitHub (up to 100)</t>
-  </si>
-  <si>
     <t>Basic Options (up to 130)</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>GitHub (up to 100)    - Окончателен вариант  Client-FINAL</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -707,12 +707,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -720,27 +720,27 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -748,10 +748,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -782,7 +782,7 @@
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
